--- a/medicine/Psychotrope/Coteaux-de-l'Ain/Coteaux-de-l'Ain.xlsx
+++ b/medicine/Psychotrope/Coteaux-de-l'Ain/Coteaux-de-l'Ain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coteaux-de-l%27Ain</t>
+          <t>Coteaux-de-l'Ain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vin Coteaux-de-l'Ain, anciennement vin de Pays des Coteaux-de-l'Ain, est un vin français d'indication géographique protégée de zone, produit dans le département de l'Ain.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coteaux-de-l%27Ain</t>
+          <t>Coteaux-de-l'Ain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture de la vigne est ancienne sur ce territoire. En effet, les Gaulois cultivaient déjà la vigne dans cette zone. Par la suite, les Romains découvrirent ces vignes abandonnées, et les remirent en culture.
 Au Moyen Âge, il ne reste plus que des parcelles où l'on produit du vin de qualité. Les moines sont les principaux acteurs de cette filière. Ces derniers conservent une quasi exclusivité sur cette activité jusqu'au XVIIe siècle.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coteaux-de-l%27Ain</t>
+          <t>Coteaux-de-l'Ain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aire de l'IGP
-Zone principale[N 1]
-La zone principale est composée de l'ensemble des communes du département de l'Ain.
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Zone principale[N 1]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone principale est composée de l'ensemble des communes du département de l'Ain.
 Appellation Coteaux-de-l'Ain Pays de Gex
 27 communes peuvent bénéficier de l'appellation Pays de Gex : Cessy, Challex, Chevry, Collonges, Crozet, Divonne-les-Bains, Échenevex, Farges, Ferney-Voltaire, Gex, Grilly, Léaz, Ornex, Péron, Pougny, Prévessin-Moëns, Saint-Genis-Pouilly, Saint-Jean-de-Gonville, Sauverny, Ségny, Sergy, Thoiry, Versonnex, Vesancy, Bellegarde-sur-Valserine, Lancrans et Confort.
 Appellation Coteaux-de-l'Ain Revermont
@@ -558,62 +580,366 @@
 8 communes peuvent bénéficier de l'appellation Valromey : Artemare, Belmont-Luthézieu, Champagne-en-Valromey, Chavornay, Sutrieu, Talissieu, Vieu et Virieu-le-Petit.
 Appellation Coteaux-de-l'Ain Val-de-Saône
 9 communes de l'est de la partie du Val-de-Saône située entre la Dombes et le Beaujolais peuvent bénéficier de l'appellation Val-de-Saône : Amareins, Beauregard, Chaleins, Fareins, Francheleins, Guéreins, Lurcy, Messimy-sur-Saône et Montmerle-sur-Saône.
-Zone de proximité immédiate[N 2]
-La zone de proximité est composée de l'ensemble des communes des quatre arrondissements limitrophes de la zone principale :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coteaux-de-l'Ain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-l%27Ain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Zone de proximité immédiate[N 2]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La zone de proximité est composée de l'ensemble des communes des quatre arrondissements limitrophes de la zone principale :
 L'arrondissement de Mâcon dans le département de Saône-et-Loire,
 L'arrondissement de Villefranche-sur-Saône dans le département du Rhône,
 L'arrondissement de Lons-le-Saunier dans le département du Jura,
-L'arrondissement de Chambéry dans le département de la Savoie.
-Orographie et géologie
-Climat
-La zone est dominée par un climat de type océanique avec des influences continentales et méridionales. Cela se traduit par des précipitations abondantes et régulières. Les hivers y sont froids et peuvent être très rigoureux. Les étés sont chauds. Il faut noter que le caractère montagneux de la zone entraîne durant l'hiver de longues périodes de froid. Le territoire peut aussi être longuement recouvert par la neige.
+L'arrondissement de Chambéry dans le département de la Savoie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coteaux-de-l'Ain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-l%27Ain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone est dominée par un climat de type océanique avec des influences continentales et méridionales. Cela se traduit par des précipitations abondantes et régulières. Les hivers y sont froids et peuvent être très rigoureux. Les étés sont chauds. Il faut noter que le caractère montagneux de la zone entraîne durant l'hiver de longues périodes de froid. Le territoire peut aussi être longuement recouvert par la neige.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Coteaux-de-l%27Ain</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coteaux-de-l%27Ain</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coteaux-de-l'Ain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-l%27Ain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Présentation
-Conditions de production
-Les vins bénéficiant de l'indication géographique protégée « Coteaux de l'Ain » sont produits dans la limite d'un rendement maximum à l'hectare de 100 hectolitres[1].
-Les lies, les bourbes, les éventuels produits non vinifiés et le vin destiné à la distillation ou à tout autre usage industriel, ne peuvent excéder 10 hectolitres par hectare au-delà de ce rendement maximum de production.
-Encépagement
-Cépages noirs
-Les cépages noirs utilisés sont : le Cabernet franc N, le Cabernet-Sauvignon N, le Carignan N, le Carmenère N, le César N, le Chatus N, le Cinsault N, le Corbeau N, le Gamaret N, le Gamay N, le Gamay de Bouze N, le Gamay de Chaudenay N, le Gamay Fréaux N, le Grenache N, le Landal N, le Mècle N, le Merlot N, le Meunier N, la Mondeuse N, le Muscat de Hambourg N, le Persan N, le Pinot N, le Plantet N, le Portan N, le Poulsard N, le Syrah N et le Trousseau N.
-Cépages blancs
-Les cépages blancs utilisés sont : l'Aligoté B, l'Altesse B, l'Arvine B, l'Auxerrois B, le Chardonnay B, le Chasan B, le Chasselas B, le Chenin B, la Clairette B, la Folle Blanche B, le Furmint B, le Grenache B, le Gringet B, la Jacquère B, le Marsanne B, le Melon B, la Molette B, la Mondeuse B, le Müller-Thurgau B, le Muscat à petits grains B, le Muscat d’Alexandrie B, le Muscat cendré B, le Pinot B, le Riesling B, le Roussanne B, le Roussette d’Ayze B, le Sauvignon B, le Savagnin B, le Seyval B, le Sylvaner B et le Viognier B.
-Cépages gris
-Les cépages gris utilisés sont : le Grenache G, le Pinot G et le Sauvignon G.
-Cépages roses
-Les cépages roses utilisés sont : le Chasselas Rs, la Clairette Rs, le Gewurztraminer Rs, le Muscat à petits grains Rs et le Velteliner rouge précoce Rs.
-Cépages rouges
-Les cépages rouges utilisés sont : le Cardinal Rg et le Muscat à petits grains Rg.
-Types de vin
-En application du cahier des charges de l'indication géographique protégée annexé à l'arrêté du 8 décembre 2017 l'indication géographique protégée « Coteaux de l'Ain » peut être complétée par le nom d'un ou de plusieurs cépages, elle peut aussi être complétée par les mentions "primeur" ou "nouveau", elle peut enfin être complétée par le nom des unités géographiques plus petites suivantes, selon les conditions de production fixées dans le présent cahier des charges : "Pays de Gex " ; " Revermont" ; "Val de Saône " ; "Valromey"[1]. Cependant L'indication géographique protégée « Coteaux de l'Ain » est réservée aux vins tranquilles et aux vins mousseux de qualité rouges, rosés, blancs. La mention d'un à plusieurs cépages est réservée aux vins tranquilles et aux vins mousseux de qualité. La mention « primeur » est réservée aux vins tranquilles.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Conditions de production</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les vins bénéficiant de l'indication géographique protégée « Coteaux de l'Ain » sont produits dans la limite d'un rendement maximum à l'hectare de 100 hectolitres.
+Les lies, les bourbes, les éventuels produits non vinifiés et le vin destiné à la distillation ou à tout autre usage industriel, ne peuvent excéder 10 hectolitres par hectare au-delà de ce rendement maximum de production.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coteaux-de-l'Ain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-l%27Ain</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cépages noirs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages noirs utilisés sont : le Cabernet franc N, le Cabernet-Sauvignon N, le Carignan N, le Carmenère N, le César N, le Chatus N, le Cinsault N, le Corbeau N, le Gamaret N, le Gamay N, le Gamay de Bouze N, le Gamay de Chaudenay N, le Gamay Fréaux N, le Grenache N, le Landal N, le Mècle N, le Merlot N, le Meunier N, la Mondeuse N, le Muscat de Hambourg N, le Persan N, le Pinot N, le Plantet N, le Portan N, le Poulsard N, le Syrah N et le Trousseau N.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coteaux-de-l'Ain</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-l%27Ain</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cépages blancs</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages blancs utilisés sont : l'Aligoté B, l'Altesse B, l'Arvine B, l'Auxerrois B, le Chardonnay B, le Chasan B, le Chasselas B, le Chenin B, la Clairette B, la Folle Blanche B, le Furmint B, le Grenache B, le Gringet B, la Jacquère B, le Marsanne B, le Melon B, la Molette B, la Mondeuse B, le Müller-Thurgau B, le Muscat à petits grains B, le Muscat d’Alexandrie B, le Muscat cendré B, le Pinot B, le Riesling B, le Roussanne B, le Roussette d’Ayze B, le Sauvignon B, le Savagnin B, le Seyval B, le Sylvaner B et le Viognier B.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coteaux-de-l'Ain</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-l%27Ain</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cépages gris</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages gris utilisés sont : le Grenache G, le Pinot G et le Sauvignon G.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coteaux-de-l'Ain</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-l%27Ain</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cépages roses</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages roses utilisés sont : le Chasselas Rs, la Clairette Rs, le Gewurztraminer Rs, le Muscat à petits grains Rs et le Velteliner rouge précoce Rs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Coteaux-de-l'Ain</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-l%27Ain</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cépages rouges</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages rouges utilisés sont : le Cardinal Rg et le Muscat à petits grains Rg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Coteaux-de-l'Ain</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-l%27Ain</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Types de vin</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En application du cahier des charges de l'indication géographique protégée annexé à l'arrêté du 8 décembre 2017 l'indication géographique protégée « Coteaux de l'Ain » peut être complétée par le nom d'un ou de plusieurs cépages, elle peut aussi être complétée par les mentions "primeur" ou "nouveau", elle peut enfin être complétée par le nom des unités géographiques plus petites suivantes, selon les conditions de production fixées dans le présent cahier des charges : "Pays de Gex " ; " Revermont" ; "Val de Saône " ; "Valromey". Cependant L'indication géographique protégée « Coteaux de l'Ain » est réservée aux vins tranquilles et aux vins mousseux de qualité rouges, rosés, blancs. La mention d'un à plusieurs cépages est réservée aux vins tranquilles et aux vins mousseux de qualité. La mention « primeur » est réservée aux vins tranquilles.
 Il existe 41 labellisations différentes :
 Coteaux de l'Ain mousseux de qualité blanc
 Coteaux de l'Ain mousseux de qualité rosé
@@ -656,8 +982,7 @@
 Coteaux de l'Ain Valromey primeur ou nouveau blanc
 Coteaux de l'Ain Valromey primeur ou nouveau rosé
 Coteaux de l'Ain Valromey primeur ou nouveau rouge
-Vin et gastronomie
-Production et structure des exploitations</t>
+</t>
         </is>
       </c>
     </row>
